--- a/fhir/IG/mosreg/ValueSet-miramedix-vs-patient-identifier-type.xlsx
+++ b/fhir/IG/mosreg/ValueSet-miramedix-vs-patient-identifier-type.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T13:42:04+03:00</t>
+    <t>2021-10-21T16:57:10+03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/IG/mosreg/ValueSet-miramedix-vs-patient-identifier-type.xlsx
+++ b/fhir/IG/mosreg/ValueSet-miramedix-vs-patient-identifier-type.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T16:57:10+03:00</t>
+    <t>2021-10-21T17:36:15+03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/IG/mosreg/ValueSet-miramedix-vs-patient-identifier-type.xlsx
+++ b/fhir/IG/mosreg/ValueSet-miramedix-vs-patient-identifier-type.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T17:36:15+03:00</t>
+    <t>2021-10-22T09:18:10+03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/IG/mosreg/ValueSet-miramedix-vs-patient-identifier-type.xlsx
+++ b/fhir/IG/mosreg/ValueSet-miramedix-vs-patient-identifier-type.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-22T09:18:10+03:00</t>
+    <t>2021-11-03T16:53:54+03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/IG/mosreg/ValueSet-miramedix-vs-patient-identifier-type.xlsx
+++ b/fhir/IG/mosreg/ValueSet-miramedix-vs-patient-identifier-type.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-03T16:53:54+03:00</t>
+    <t>2022-07-29T19:06:48+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
